--- a/Sly_training_trend.xlsx
+++ b/Sly_training_trend.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uchi_data\Sly_beh\MMN_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6568F7BC-0D6F-4383-B01F-295E1988EE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71B07F9-B53A-49C9-8162-9C41A99B00C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3615" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11136" yWindow="-25920" windowWidth="23232" windowHeight="25296" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Match_nonmatch_performance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>C11_Match</t>
   </si>
@@ -85,6 +86,21 @@
   <si>
     <t>Performance_1116</t>
   </si>
+  <si>
+    <t>Match_2rep</t>
+  </si>
+  <si>
+    <t>Nonmatch_2rep</t>
+  </si>
+  <si>
+    <t>Nonmatch_3rep</t>
+  </si>
+  <si>
+    <t>Match_3rep</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
 </sst>
 </file>
 
@@ -119,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +153,1273 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Match_2rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70D6-4B70-B898-6AD3F7B128BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nonmatch_2rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70D6-4B70-B898-6AD3F7B128BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Match_3rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70D6-4B70-B898-6AD3F7B128BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nonmatch_3rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-70D6-4B70-B898-6AD3F7B128BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="59728416"/>
+        <c:axId val="164493472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59728416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164493472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164493472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59728416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470535</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF119C9-CF10-6D1C-2658-8C8C377DB8BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:I30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +2214,7 @@
         <v>0.38888888900000002</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G2:G3)</f>
         <v>0.73333333333333295</v>
       </c>
       <c r="H23">
@@ -984,35 +2268,35 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <f>AVERAGE(B6:B7)</f>
+        <f t="shared" ref="B25:I25" si="2">AVERAGE(B6:B7)</f>
         <v>0.62222222222222201</v>
       </c>
       <c r="C25">
-        <f>AVERAGE(C6:C7)</f>
+        <f t="shared" si="2"/>
         <v>0.85714285714285698</v>
       </c>
       <c r="D25">
-        <f>AVERAGE(D6:D7)</f>
+        <f t="shared" si="2"/>
         <v>0.80833333350000003</v>
       </c>
       <c r="E25">
-        <f>AVERAGE(E6:E7)</f>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
       <c r="F25">
-        <f>AVERAGE(F6:F7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G25">
-        <f>AVERAGE(G6:G7)</f>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="H25">
-        <f>AVERAGE(H6:H7)</f>
+        <f t="shared" si="2"/>
         <v>0.92857142857142849</v>
       </c>
       <c r="I25">
-        <f>AVERAGE(I6:I7)</f>
+        <f t="shared" si="2"/>
         <v>0.94444444444444398</v>
       </c>
     </row>
@@ -1021,35 +2305,35 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <f>AVERAGE(B8:B9)</f>
+        <f t="shared" ref="B26:I26" si="3">AVERAGE(B8:B9)</f>
         <v>0.95</v>
       </c>
       <c r="C26">
-        <f>AVERAGE(C8:C9)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D26">
-        <f>AVERAGE(D8:D9)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f>AVERAGE(E8:E9)</f>
+        <f t="shared" si="3"/>
         <v>0.94444444444444398</v>
       </c>
       <c r="F26">
-        <f>AVERAGE(F8:F9)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="G26">
-        <f>AVERAGE(G8:G9)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H26">
-        <f>AVERAGE(H8:H9)</f>
+        <f t="shared" si="3"/>
         <v>0.90909090909090895</v>
       </c>
       <c r="I26">
-        <f>AVERAGE(I8:I9)</f>
+        <f t="shared" si="3"/>
         <v>0.91666666666666652</v>
       </c>
     </row>
@@ -1058,35 +2342,35 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <f>AVERAGE(B10:B11)</f>
+        <f t="shared" ref="B27:I27" si="4">AVERAGE(B10:B11)</f>
         <v>0.6</v>
       </c>
       <c r="C27">
-        <f>AVERAGE(C10:C11)</f>
+        <f t="shared" si="4"/>
         <v>0.55844155844155796</v>
       </c>
       <c r="D27">
-        <f>AVERAGE(D10:D11)</f>
+        <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
       <c r="E27">
-        <f>AVERAGE(E10:E11)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f>AVERAGE(F10:F11)</f>
+        <f t="shared" si="4"/>
         <v>0.77777777799999992</v>
       </c>
       <c r="G27">
-        <f>AVERAGE(G10:G11)</f>
+        <f t="shared" si="4"/>
         <v>0.28571428571428548</v>
       </c>
       <c r="H27">
-        <f>AVERAGE(H10:H11)</f>
+        <f t="shared" si="4"/>
         <v>0.5777777777777775</v>
       </c>
       <c r="I27">
-        <f>AVERAGE(I10:I11)</f>
+        <f t="shared" si="4"/>
         <v>0.95454545454545447</v>
       </c>
     </row>
@@ -1095,35 +2379,35 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <f>AVERAGE(B12:B13)</f>
+        <f t="shared" ref="B28:I28" si="5">AVERAGE(B12:B13)</f>
         <v>0.69444444444444398</v>
       </c>
       <c r="C28">
-        <f>AVERAGE(C12:C13)</f>
+        <f t="shared" si="5"/>
         <v>0.86363636363636354</v>
       </c>
       <c r="D28">
-        <f>AVERAGE(D12:D13)</f>
+        <f t="shared" si="5"/>
         <v>0.86607142849999996</v>
       </c>
       <c r="E28">
-        <f>AVERAGE(E12:E13)</f>
+        <f t="shared" si="5"/>
         <v>0.86363636363636354</v>
       </c>
       <c r="F28">
-        <f>AVERAGE(F12:F13)</f>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="G28">
-        <f>AVERAGE(G12:G13)</f>
+        <f t="shared" si="5"/>
         <v>0.72916666666666652</v>
       </c>
       <c r="H28">
-        <f>AVERAGE(H12:H13)</f>
+        <f t="shared" si="5"/>
         <v>0.76282051282051255</v>
       </c>
       <c r="I28">
-        <f>AVERAGE(I12:I13)</f>
+        <f t="shared" si="5"/>
         <v>0.4375</v>
       </c>
     </row>
@@ -1132,35 +2416,35 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <f>AVERAGE(B14:B15)</f>
+        <f t="shared" ref="B29:I29" si="6">AVERAGE(B14:B15)</f>
         <v>0.81818181818181801</v>
       </c>
       <c r="C29">
-        <f>AVERAGE(C14:C15)</f>
+        <f t="shared" si="6"/>
         <v>0.40476190476190399</v>
       </c>
       <c r="D29">
-        <f>AVERAGE(D14:D15)</f>
+        <f t="shared" si="6"/>
         <v>0.43181818199999999</v>
       </c>
       <c r="E29">
-        <f>AVERAGE(E14:E15)</f>
+        <f t="shared" si="6"/>
         <v>0.78333333333333299</v>
       </c>
       <c r="F29">
-        <f>AVERAGE(F14:F15)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(G14:G15)</f>
+        <f t="shared" si="6"/>
         <v>0.59821428571428548</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(H14:H15)</f>
+        <f t="shared" si="6"/>
         <v>0.78571428571428548</v>
       </c>
       <c r="I29">
-        <f>AVERAGE(I14:I15)</f>
+        <f t="shared" si="6"/>
         <v>0.875</v>
       </c>
     </row>
@@ -1169,39 +2453,216 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <f>AVERAGE(B16:B17)</f>
+        <f t="shared" ref="B30:I30" si="7">AVERAGE(B16:B17)</f>
         <v>0.817460317460317</v>
       </c>
       <c r="C30">
-        <f>AVERAGE(C16:C17)</f>
+        <f t="shared" si="7"/>
         <v>0.87820512820512797</v>
       </c>
       <c r="D30">
-        <f>AVERAGE(D16:D17)</f>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="E30">
-        <f>AVERAGE(E16:E17)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F30">
-        <f>AVERAGE(F16:F17)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f>AVERAGE(G16:G17)</f>
+        <f t="shared" si="7"/>
         <v>0.77747252747252704</v>
       </c>
       <c r="H30">
-        <f>AVERAGE(H16:H17)</f>
+        <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
       <c r="I30">
-        <f>AVERAGE(I16:I17)</f>
+        <f t="shared" si="7"/>
         <v>0.4807692307692305</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A721E779-FEE5-484E-8483-F9B1BCF641C5}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>10.25</v>
+      </c>
+      <c r="C1" s="1">
+        <v>10.26</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10.31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="F1" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="G1" s="1">
+        <v>11.13</v>
+      </c>
+      <c r="H1" s="1">
+        <v>11.15</v>
+      </c>
+      <c r="I1" s="1">
+        <v>11.16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.82</v>
+      </c>
+      <c r="C2">
+        <v>0.88</v>
+      </c>
+      <c r="D2">
+        <v>0.82</v>
+      </c>
+      <c r="E2">
+        <v>0.84</v>
+      </c>
+      <c r="F2">
+        <v>0.69</v>
+      </c>
+      <c r="G2">
+        <v>0.79</v>
+      </c>
+      <c r="H2">
+        <v>0.81</v>
+      </c>
+      <c r="I2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.68</v>
+      </c>
+      <c r="C3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.79</v>
+      </c>
+      <c r="G3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.77</v>
+      </c>
+      <c r="I3">
+        <v>0.91</v>
+      </c>
+      <c r="J3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0.79</v>
+      </c>
+      <c r="C4">
+        <v>0.89</v>
+      </c>
+      <c r="D4">
+        <v>0.96</v>
+      </c>
+      <c r="E4">
+        <v>0.85</v>
+      </c>
+      <c r="F4">
+        <v>0.83</v>
+      </c>
+      <c r="G4">
+        <v>0.83</v>
+      </c>
+      <c r="H4">
+        <v>0.89</v>
+      </c>
+      <c r="I4">
+        <v>0.73</v>
+      </c>
+      <c r="J4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.51</v>
+      </c>
+      <c r="E5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.74</v>
+      </c>
+      <c r="G5">
+        <v>0.48</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.82</v>
+      </c>
+      <c r="J5">
+        <v>0.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sly_training_trend.xlsx
+++ b/Sly_training_trend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uchi_data\Sly_beh\MMN_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71B07F9-B53A-49C9-8162-9C41A99B00C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1DFE6B-3985-4F00-AC1D-F1C0BC35457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11136" yWindow="-25920" windowWidth="23232" windowHeight="25296" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>C11_Match</t>
   </si>
@@ -101,6 +101,30 @@
   <si>
     <t>11.20</t>
   </si>
+  <si>
+    <t>Cat 11_2rep</t>
+  </si>
+  <si>
+    <t>Cat 12_2rep</t>
+  </si>
+  <si>
+    <t>Cat 21_2rep</t>
+  </si>
+  <si>
+    <t>Cat 22_2rep</t>
+  </si>
+  <si>
+    <t>Cat 11_3rep</t>
+  </si>
+  <si>
+    <t>Cat 12_3rep</t>
+  </si>
+  <si>
+    <t>Cat 21_3rep</t>
+  </si>
+  <si>
+    <t>Cat 22_3rep</t>
+  </si>
 </sst>
 </file>
 
@@ -135,9 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +195,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance_Match_Nonmatch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -233,9 +283,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$J$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -262,16 +312,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$2:$J$2</c:f>
+              <c:f>Match_nonmatch_performance!$B$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
                 </c:pt>
@@ -297,7 +359,19 @@
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,9 +411,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$J$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -366,16 +440,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$3:$J$3</c:f>
+              <c:f>Match_nonmatch_performance!$B$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.68</c:v>
                 </c:pt>
@@ -401,7 +487,19 @@
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83</c:v>
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,9 +539,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$J$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -470,16 +568,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$4:$J$4</c:f>
+              <c:f>Match_nonmatch_performance!$B$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.79</c:v>
                 </c:pt>
@@ -505,7 +615,19 @@
                   <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76</c:v>
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,9 +667,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$J$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -574,16 +696,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$5:$J$5</c:f>
+              <c:f>Match_nonmatch_performance!$B$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -609,7 +743,19 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79</c:v>
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,7 +971,1704 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>erformance_1st motion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> direction_2 repitition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cat 11_2rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$25:$N$25</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$26:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B272-4565-B754-DA910403516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cat 12_2rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$25:$N$25</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$27:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B272-4565-B754-DA910403516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cat 21_2rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$25:$N$25</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$28:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B272-4565-B754-DA910403516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cat 22_2rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$25:$N$25</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$29:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B272-4565-B754-DA910403516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1841679215"/>
+        <c:axId val="1844477759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1841679215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844477759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1844477759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841679215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>erformance_1st motion direction_3 repitition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cat 11_3rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$47:$N$47</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$48:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1627-468B-A3F4-18B0938E1716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cat 12_3rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$47:$N$47</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$49:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1627-468B-A3F4-18B0938E1716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cat 21_3rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$47:$N$47</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$50:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1627-468B-A3F4-18B0938E1716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cat 22_3rep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Match_nonmatch_performance!$B$47:$N$47</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Match_nonmatch_performance!$B$51:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1627-468B-A3F4-18B0938E1716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1871824879"/>
+        <c:axId val="1624216879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1871824879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624216879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624216879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871824879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1381,20 +3224,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>853440</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>470535</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1414,6 +4289,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>382905</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37B6A69-6843-9CE6-BC52-DBBF5C41C15E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>565785</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2B255A-21CE-6F0A-3423-6D545D3EC436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2492,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A721E779-FEE5-484E-8483-F9B1BCF641C5}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +5451,7 @@
     <col min="2" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>10.25</v>
       </c>
@@ -2532,8 +5479,20 @@
       <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="K1" s="1">
+        <v>11.29</v>
+      </c>
+      <c r="L1" s="1">
+        <v>12.04</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12.06</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2562,10 +5521,22 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J2">
-        <v>0.56000000000000005</v>
+        <v>0.42</v>
+      </c>
+      <c r="K2">
+        <v>0.59</v>
+      </c>
+      <c r="L2">
+        <v>0.67</v>
+      </c>
+      <c r="M2">
+        <v>0.82</v>
+      </c>
+      <c r="N2">
+        <v>0.78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2594,10 +5565,22 @@
         <v>0.91</v>
       </c>
       <c r="J3">
-        <v>0.83</v>
+        <v>0.96</v>
+      </c>
+      <c r="K3">
+        <v>0.63</v>
+      </c>
+      <c r="L3">
+        <v>0.7</v>
+      </c>
+      <c r="M3">
+        <v>0.86</v>
+      </c>
+      <c r="N3">
+        <v>0.91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2626,10 +5609,22 @@
         <v>0.73</v>
       </c>
       <c r="J4">
-        <v>0.76</v>
+        <v>0.7</v>
+      </c>
+      <c r="K4">
+        <v>0.86</v>
+      </c>
+      <c r="L4">
+        <v>0.89</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2658,11 +5653,458 @@
         <v>0.82</v>
       </c>
       <c r="J5">
+        <v>0.95</v>
+      </c>
+      <c r="K5">
+        <v>0.74</v>
+      </c>
+      <c r="L5">
+        <v>0.6</v>
+      </c>
+      <c r="M5">
+        <v>0.7</v>
+      </c>
+      <c r="N5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>10.25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10.26</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10.31</v>
+      </c>
+      <c r="E25" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="G25" s="1">
+        <v>11.13</v>
+      </c>
+      <c r="H25" s="1">
+        <v>11.15</v>
+      </c>
+      <c r="I25" s="1">
+        <v>11.16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1">
+        <v>11.29</v>
+      </c>
+      <c r="L25" s="1">
+        <v>12.04</v>
+      </c>
+      <c r="M25" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="N25" s="1">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>0.76</v>
+      </c>
+      <c r="C26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D26">
+        <v>0.62</v>
+      </c>
+      <c r="E26">
+        <v>0.54</v>
+      </c>
+      <c r="F26">
+        <v>0.26</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.75</v>
+      </c>
+      <c r="I26">
+        <v>0.6</v>
+      </c>
+      <c r="J26">
+        <v>0.69</v>
+      </c>
+      <c r="K26">
+        <v>0.69</v>
+      </c>
+      <c r="L26">
+        <v>0.72</v>
+      </c>
+      <c r="M26">
+        <v>0.75</v>
+      </c>
+      <c r="N26">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
         <v>0.79</v>
+      </c>
+      <c r="C27">
+        <v>0.93</v>
+      </c>
+      <c r="D27">
+        <v>0.9</v>
+      </c>
+      <c r="E27">
+        <v>0.91</v>
+      </c>
+      <c r="F27">
+        <v>0.93</v>
+      </c>
+      <c r="G27">
+        <v>0.85</v>
+      </c>
+      <c r="H27">
+        <v>0.92</v>
+      </c>
+      <c r="I27">
+        <v>0.93</v>
+      </c>
+      <c r="J27">
+        <v>0.77</v>
+      </c>
+      <c r="K27">
+        <v>0.8</v>
+      </c>
+      <c r="L27">
+        <v>0.98</v>
+      </c>
+      <c r="M27">
+        <v>0.92</v>
+      </c>
+      <c r="N27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>0.65</v>
+      </c>
+      <c r="C28">
+        <v>0.71</v>
+      </c>
+      <c r="D28">
+        <v>0.71</v>
+      </c>
+      <c r="E28">
+        <v>0.93</v>
+      </c>
+      <c r="F28">
+        <v>0.79</v>
+      </c>
+      <c r="G28">
+        <v>0.51</v>
+      </c>
+      <c r="H28">
+        <v>0.67</v>
+      </c>
+      <c r="I28">
+        <v>0.7</v>
+      </c>
+      <c r="J28">
+        <v>0.63</v>
+      </c>
+      <c r="K28">
+        <v>0.42</v>
+      </c>
+      <c r="L28">
+        <v>0.47</v>
+      </c>
+      <c r="M28">
+        <v>0.81</v>
+      </c>
+      <c r="N28">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>0.82</v>
+      </c>
+      <c r="C29">
+        <v>0.64</v>
+      </c>
+      <c r="D29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E29">
+        <v>0.89</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.69</v>
+      </c>
+      <c r="H29">
+        <v>0.83</v>
+      </c>
+      <c r="I29">
+        <v>0.68</v>
+      </c>
+      <c r="J29">
+        <v>0.67</v>
+      </c>
+      <c r="K29">
+        <v>0.54</v>
+      </c>
+      <c r="L29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M29">
+        <v>0.88</v>
+      </c>
+      <c r="N29">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>10.25</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10.26</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10.31</v>
+      </c>
+      <c r="E47" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="F47" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="G47" s="1">
+        <v>11.13</v>
+      </c>
+      <c r="H47" s="1">
+        <v>11.15</v>
+      </c>
+      <c r="I47" s="1">
+        <v>11.16</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="1">
+        <v>11.29</v>
+      </c>
+      <c r="L47" s="1">
+        <v>12.04</v>
+      </c>
+      <c r="M47" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="N47" s="1">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>0.64</v>
+      </c>
+      <c r="C48">
+        <v>0.78</v>
+      </c>
+      <c r="D48">
+        <v>0.77</v>
+      </c>
+      <c r="E48">
+        <v>0.7</v>
+      </c>
+      <c r="F48">
+        <v>0.88</v>
+      </c>
+      <c r="G48">
+        <v>0.77</v>
+      </c>
+      <c r="H48">
+        <v>0.86</v>
+      </c>
+      <c r="I48">
+        <v>0.96</v>
+      </c>
+      <c r="J48">
+        <v>0.94</v>
+      </c>
+      <c r="K48">
+        <v>0.93</v>
+      </c>
+      <c r="L48">
+        <v>0.87</v>
+      </c>
+      <c r="M48">
+        <v>0.87</v>
+      </c>
+      <c r="N48">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>0.76</v>
+      </c>
+      <c r="C49">
+        <v>0.71</v>
+      </c>
+      <c r="D49">
+        <v>0.76</v>
+      </c>
+      <c r="E49">
+        <v>0.62</v>
+      </c>
+      <c r="F49">
+        <v>0.68</v>
+      </c>
+      <c r="G49">
+        <v>0.45</v>
+      </c>
+      <c r="H49">
+        <v>0.64</v>
+      </c>
+      <c r="I49">
+        <v>0.66</v>
+      </c>
+      <c r="J49">
+        <v>0.75</v>
+      </c>
+      <c r="K49">
+        <v>0.86</v>
+      </c>
+      <c r="L49">
+        <v>0.84</v>
+      </c>
+      <c r="M49">
+        <v>0.71</v>
+      </c>
+      <c r="N49">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <v>0.65</v>
+      </c>
+      <c r="C50">
+        <v>0.74</v>
+      </c>
+      <c r="D50">
+        <v>0.77</v>
+      </c>
+      <c r="E50">
+        <v>0.83</v>
+      </c>
+      <c r="F50">
+        <v>0.81</v>
+      </c>
+      <c r="G50">
+        <v>0.76</v>
+      </c>
+      <c r="H50">
+        <v>0.75</v>
+      </c>
+      <c r="I50">
+        <v>0.77</v>
+      </c>
+      <c r="J50">
+        <v>0.72</v>
+      </c>
+      <c r="K50">
+        <v>0.64</v>
+      </c>
+      <c r="L50">
+        <v>0.59</v>
+      </c>
+      <c r="M50">
+        <v>0.78</v>
+      </c>
+      <c r="N50">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>0.74</v>
+      </c>
+      <c r="C51">
+        <v>0.69</v>
+      </c>
+      <c r="D51">
+        <v>0.64</v>
+      </c>
+      <c r="E51">
+        <v>0.71</v>
+      </c>
+      <c r="F51">
+        <v>0.78</v>
+      </c>
+      <c r="G51">
+        <v>0.63</v>
+      </c>
+      <c r="H51">
+        <v>0.53</v>
+      </c>
+      <c r="I51">
+        <v>0.71</v>
+      </c>
+      <c r="J51">
+        <v>0.88</v>
+      </c>
+      <c r="K51">
+        <v>0.77</v>
+      </c>
+      <c r="L51">
+        <v>0.68</v>
+      </c>
+      <c r="M51">
+        <v>0.82</v>
+      </c>
+      <c r="N51">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sly_training_trend.xlsx
+++ b/Sly_training_trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uchi_data\Sly_beh\MMN_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1DFE6B-3985-4F00-AC1D-F1C0BC35457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A5F83B-EF99-4E1C-B735-CFC0AD5DFD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11916" yWindow="-26028" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>C11_Match</t>
   </si>
@@ -125,6 +125,9 @@
   <si>
     <t>Cat 22_3rep</t>
   </si>
+  <si>
+    <t>12.07</t>
+  </si>
 </sst>
 </file>
 
@@ -159,10 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,9 +285,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$N$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$P$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -324,16 +326,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$2:$N$2</c:f>
+              <c:f>Match_nonmatch_performance!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
                 </c:pt>
@@ -372,6 +380,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,9 +425,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$N$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$P$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -452,16 +466,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$3:$N$3</c:f>
+              <c:f>Match_nonmatch_performance!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.68</c:v>
                 </c:pt>
@@ -500,6 +520,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,9 +565,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$N$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$P$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -580,16 +606,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$4:$N$4</c:f>
+              <c:f>Match_nonmatch_performance!$B$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.79</c:v>
                 </c:pt>
@@ -628,6 +660,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,9 +705,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$N$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$P$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -708,16 +746,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$5:$N$5</c:f>
+              <c:f>Match_nonmatch_performance!$B$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -756,6 +800,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,9 +1133,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$N$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$P$25</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1124,16 +1174,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$26:$N$26</c:f>
+              <c:f>Match_nonmatch_performance!$B$26:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.76</c:v>
                 </c:pt>
@@ -1172,6 +1228,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,9 +1273,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$N$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$P$25</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1252,16 +1314,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$27:$N$27</c:f>
+              <c:f>Match_nonmatch_performance!$B$27:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.79</c:v>
                 </c:pt>
@@ -1300,6 +1368,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,9 +1413,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$N$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$P$25</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1380,16 +1454,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$28:$N$28</c:f>
+              <c:f>Match_nonmatch_performance!$B$28:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.65</c:v>
                 </c:pt>
@@ -1428,6 +1508,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,9 +1553,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$N$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$P$25</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1508,16 +1594,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$29:$N$29</c:f>
+              <c:f>Match_nonmatch_performance!$B$29:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
                 </c:pt>
@@ -1556,6 +1648,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,9 +1998,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$N$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$P$47</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1941,16 +2039,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$48:$N$48</c:f>
+              <c:f>Match_nonmatch_performance!$B$48:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.64</c:v>
                 </c:pt>
@@ -1989,6 +2093,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,9 +2138,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$N$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$P$47</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2069,16 +2179,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$49:$N$49</c:f>
+              <c:f>Match_nonmatch_performance!$B$49:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.76</c:v>
                 </c:pt>
@@ -2117,6 +2233,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,9 +2278,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$N$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$P$47</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2197,16 +2319,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$50:$N$50</c:f>
+              <c:f>Match_nonmatch_performance!$B$50:$P$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.65</c:v>
                 </c:pt>
@@ -2245,6 +2373,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,9 +2418,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$N$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$P$47</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2325,16 +2459,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$51:$N$51</c:f>
+              <c:f>Match_nonmatch_performance!$B$51:$P$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.74</c:v>
                 </c:pt>
@@ -2373,6 +2513,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4263,13 +4409,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>283845</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4297,15 +4443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>382905</xdr:colOff>
+      <xdr:colOff>401954</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4335,11 +4481,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>565785</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
@@ -5439,10 +5585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A721E779-FEE5-484E-8483-F9B1BCF641C5}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,7 +5597,7 @@
     <col min="2" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>10.25</v>
       </c>
@@ -5491,8 +5637,14 @@
       <c r="N1" s="1">
         <v>12.06</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1">
+        <v>12.08</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5535,8 +5687,18 @@
       <c r="N2">
         <v>0.78</v>
       </c>
+      <c r="O2">
+        <v>0.71</v>
+      </c>
+      <c r="P2">
+        <v>0.8</v>
+      </c>
+      <c r="W2">
+        <f>AVERAGE(M2:P2)</f>
+        <v>0.77750000000000008</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5579,8 +5741,18 @@
       <c r="N3">
         <v>0.91</v>
       </c>
+      <c r="O3">
+        <v>0.86</v>
+      </c>
+      <c r="P3">
+        <v>0.78</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W51" si="0">AVERAGE(M3:P3)</f>
+        <v>0.85250000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5623,8 +5795,18 @@
       <c r="N4">
         <v>0.91</v>
       </c>
+      <c r="O4">
+        <v>0.94</v>
+      </c>
+      <c r="P4">
+        <v>0.87</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0.90500000000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5667,8 +5849,18 @@
       <c r="N5">
         <v>0.91</v>
       </c>
+      <c r="O5">
+        <v>0.69</v>
+      </c>
+      <c r="P5">
+        <v>0.62</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>10.25</v>
       </c>
@@ -5708,9 +5900,15 @@
       <c r="N25" s="1">
         <v>12.06</v>
       </c>
+      <c r="O25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="1">
+        <v>12.08</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26">
@@ -5752,9 +5950,19 @@
       <c r="N26">
         <v>0.86</v>
       </c>
+      <c r="O26">
+        <v>0.77</v>
+      </c>
+      <c r="P26">
+        <v>0.76</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>0.78499999999999992</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27">
@@ -5796,9 +6004,19 @@
       <c r="N27">
         <v>0.95</v>
       </c>
+      <c r="O27">
+        <v>0.93</v>
+      </c>
+      <c r="P27">
+        <v>0.83</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>0.90750000000000008</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28">
@@ -5840,9 +6058,19 @@
       <c r="N28">
         <v>0.73</v>
       </c>
+      <c r="O28">
+        <v>0.69</v>
+      </c>
+      <c r="P28">
+        <v>0.76</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>0.74750000000000005</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29">
@@ -5884,8 +6112,18 @@
       <c r="N29">
         <v>0.85</v>
       </c>
+      <c r="O29">
+        <v>0.76</v>
+      </c>
+      <c r="P29">
+        <v>0.81</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>0.82500000000000007</v>
+      </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>10.25</v>
       </c>
@@ -5925,9 +6163,15 @@
       <c r="N47" s="1">
         <v>12.06</v>
       </c>
+      <c r="O47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="1">
+        <v>12.08</v>
+      </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48">
@@ -5969,9 +6213,19 @@
       <c r="N48">
         <v>0.98</v>
       </c>
+      <c r="O48">
+        <v>0.73</v>
+      </c>
+      <c r="P48">
+        <v>0.67</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>26</v>
       </c>
       <c r="B49">
@@ -6013,9 +6267,19 @@
       <c r="N49">
         <v>0.8</v>
       </c>
+      <c r="O49">
+        <v>0.81</v>
+      </c>
+      <c r="P49">
+        <v>0.87</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="0"/>
+        <v>0.7975000000000001</v>
+      </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>27</v>
       </c>
       <c r="B50">
@@ -6057,9 +6321,19 @@
       <c r="N50">
         <v>0.71</v>
       </c>
+      <c r="O50">
+        <v>0.89</v>
+      </c>
+      <c r="P50">
+        <v>0.72</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="0"/>
+        <v>0.77499999999999991</v>
+      </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51">
@@ -6100,6 +6374,16 @@
       </c>
       <c r="N51">
         <v>0.74</v>
+      </c>
+      <c r="O51">
+        <v>0.82</v>
+      </c>
+      <c r="P51">
+        <v>0.73</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="0"/>
+        <v>0.77749999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Sly_training_trend.xlsx
+++ b/Sly_training_trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uchi_data\Sly_beh\MMN_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A5F83B-EF99-4E1C-B735-CFC0AD5DFD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F95C242-FF51-4691-8F61-D3C009E45956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11916" yWindow="-26028" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$P$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$Q$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -332,16 +332,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$2:$P$2</c:f>
+              <c:f>Match_nonmatch_performance!$B$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
                 </c:pt>
@@ -386,6 +389,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,9 +431,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$P$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$Q$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -472,16 +478,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$3:$P$3</c:f>
+              <c:f>Match_nonmatch_performance!$B$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.68</c:v>
                 </c:pt>
@@ -526,6 +535,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,9 +577,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$P$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$Q$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -612,16 +624,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$4:$P$4</c:f>
+              <c:f>Match_nonmatch_performance!$B$4:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.79</c:v>
                 </c:pt>
@@ -666,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,9 +723,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$P$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$Q$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -752,16 +770,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$5:$P$5</c:f>
+              <c:f>Match_nonmatch_performance!$B$5:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -806,6 +827,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,9 +1157,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$P$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$Q$25</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1180,16 +1204,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$26:$P$26</c:f>
+              <c:f>Match_nonmatch_performance!$B$26:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.76</c:v>
                 </c:pt>
@@ -1234,6 +1261,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,9 +1303,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$P$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$Q$25</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1320,16 +1350,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$27:$P$27</c:f>
+              <c:f>Match_nonmatch_performance!$B$27:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.79</c:v>
                 </c:pt>
@@ -1373,6 +1406,9 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
@@ -1413,9 +1449,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$P$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$Q$25</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1460,16 +1496,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$28:$P$28</c:f>
+              <c:f>Match_nonmatch_performance!$B$28:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.65</c:v>
                 </c:pt>
@@ -1514,6 +1553,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,9 +1595,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$P$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$Q$25</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1600,16 +1642,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$29:$P$29</c:f>
+              <c:f>Match_nonmatch_performance!$B$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
                 </c:pt>
@@ -1654,6 +1699,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,9 +2046,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$P$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$Q$47</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2045,16 +2093,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$48:$P$48</c:f>
+              <c:f>Match_nonmatch_performance!$B$48:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.64</c:v>
                 </c:pt>
@@ -2099,6 +2150,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,9 +2192,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$P$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$Q$47</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2185,16 +2239,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$49:$P$49</c:f>
+              <c:f>Match_nonmatch_performance!$B$49:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.76</c:v>
                 </c:pt>
@@ -2239,6 +2296,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,9 +2338,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$P$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$Q$47</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2325,16 +2385,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$50:$P$50</c:f>
+              <c:f>Match_nonmatch_performance!$B$50:$Q$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.65</c:v>
                 </c:pt>
@@ -2379,6 +2442,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,9 +2484,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$P$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$Q$47</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2465,16 +2531,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$51:$P$51</c:f>
+              <c:f>Match_nonmatch_performance!$B$51:$Q$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.74</c:v>
                 </c:pt>
@@ -2519,6 +2588,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5587,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A721E779-FEE5-484E-8483-F9B1BCF641C5}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="G47" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,6 +5715,9 @@
       <c r="P1" s="1">
         <v>12.08</v>
       </c>
+      <c r="Q1" s="1">
+        <v>12.11</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5693,9 +5768,12 @@
       <c r="P2">
         <v>0.8</v>
       </c>
+      <c r="Q2">
+        <v>0.76</v>
+      </c>
       <c r="W2">
-        <f>AVERAGE(M2:P2)</f>
-        <v>0.77750000000000008</v>
+        <f>AVERAGE(M2:Q2)</f>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -5747,9 +5825,12 @@
       <c r="P3">
         <v>0.78</v>
       </c>
+      <c r="Q3">
+        <v>0.83</v>
+      </c>
       <c r="W3">
-        <f t="shared" ref="W3:W51" si="0">AVERAGE(M3:P3)</f>
-        <v>0.85250000000000004</v>
+        <f t="shared" ref="W3:W5" si="0">AVERAGE(M3:Q3)</f>
+        <v>0.84800000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -5801,9 +5882,12 @@
       <c r="P4">
         <v>0.87</v>
       </c>
+      <c r="Q4">
+        <v>0.88</v>
+      </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0.90500000000000003</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -5855,9 +5939,12 @@
       <c r="P5">
         <v>0.62</v>
       </c>
+      <c r="Q5">
+        <v>0.72</v>
+      </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0.73</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -5906,6 +5993,9 @@
       <c r="P25" s="1">
         <v>12.08</v>
       </c>
+      <c r="Q25" s="1">
+        <v>12.11</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5956,9 +6046,12 @@
       <c r="P26">
         <v>0.76</v>
       </c>
+      <c r="Q26">
+        <v>0.67</v>
+      </c>
       <c r="W26">
-        <f t="shared" si="0"/>
-        <v>0.78499999999999992</v>
+        <f>AVERAGE(M26:Q26)</f>
+        <v>0.7619999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -6010,9 +6103,12 @@
       <c r="P27">
         <v>0.83</v>
       </c>
+      <c r="Q27">
+        <v>0.83</v>
+      </c>
       <c r="W27">
-        <f t="shared" si="0"/>
-        <v>0.90750000000000008</v>
+        <f t="shared" ref="W27:W29" si="1">AVERAGE(M27:Q27)</f>
+        <v>0.89200000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -6064,9 +6160,12 @@
       <c r="P28">
         <v>0.76</v>
       </c>
+      <c r="Q28">
+        <v>0.8</v>
+      </c>
       <c r="W28">
-        <f t="shared" si="0"/>
-        <v>0.74750000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -6118,9 +6217,12 @@
       <c r="P29">
         <v>0.81</v>
       </c>
+      <c r="Q29">
+        <v>0.87</v>
+      </c>
       <c r="W29">
-        <f t="shared" si="0"/>
-        <v>0.82500000000000007</v>
+        <f t="shared" si="1"/>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -6169,6 +6271,9 @@
       <c r="P47" s="1">
         <v>12.08</v>
       </c>
+      <c r="Q47" s="1">
+        <v>12.11</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6219,9 +6324,12 @@
       <c r="P48">
         <v>0.67</v>
       </c>
+      <c r="Q48">
+        <v>0.77</v>
+      </c>
       <c r="W48">
-        <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <f>AVERAGE(M48:Q48)</f>
+        <v>0.80399999999999994</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -6273,9 +6381,12 @@
       <c r="P49">
         <v>0.87</v>
       </c>
+      <c r="Q49">
+        <v>0.85</v>
+      </c>
       <c r="W49">
-        <f t="shared" si="0"/>
-        <v>0.7975000000000001</v>
+        <f t="shared" ref="W49:W51" si="2">AVERAGE(M49:Q49)</f>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -6327,9 +6438,12 @@
       <c r="P50">
         <v>0.72</v>
       </c>
+      <c r="Q50">
+        <v>0.81</v>
+      </c>
       <c r="W50">
-        <f t="shared" si="0"/>
-        <v>0.77499999999999991</v>
+        <f t="shared" si="2"/>
+        <v>0.78199999999999992</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -6381,9 +6495,12 @@
       <c r="P51">
         <v>0.73</v>
       </c>
+      <c r="Q51">
+        <v>0.76</v>
+      </c>
       <c r="W51">
-        <f t="shared" si="0"/>
-        <v>0.77749999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.77400000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Sly_training_trend.xlsx
+++ b/Sly_training_trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uchi_data\Sly_beh\MMN_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F95C242-FF51-4691-8F61-D3C009E45956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3FF730-31AC-48D1-8132-722F67E73BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11136" yWindow="-25920" windowWidth="23232" windowHeight="25296" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>C11_Match</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>12.07</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>12.13</t>
   </si>
 </sst>
 </file>
@@ -285,9 +291,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$Q$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$S$1</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -335,16 +341,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$2:$Q$2</c:f>
+              <c:f>Match_nonmatch_performance!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
                 </c:pt>
@@ -392,6 +404,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,9 +449,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$Q$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$S$1</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -481,16 +499,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$3:$Q$3</c:f>
+              <c:f>Match_nonmatch_performance!$B$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.68</c:v>
                 </c:pt>
@@ -538,6 +562,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,9 +607,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$Q$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$S$1</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -627,16 +657,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$4:$Q$4</c:f>
+              <c:f>Match_nonmatch_performance!$B$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.79</c:v>
                 </c:pt>
@@ -684,6 +720,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,9 +765,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$1:$Q$1</c:f>
+              <c:f>Match_nonmatch_performance!$B$1:$S$1</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -773,16 +815,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$5:$Q$5</c:f>
+              <c:f>Match_nonmatch_performance!$B$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -830,6 +878,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,9 +1211,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$Q$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$S$25</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1207,16 +1261,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$26:$Q$26</c:f>
+              <c:f>Match_nonmatch_performance!$B$26:$S$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.76</c:v>
                 </c:pt>
@@ -1264,6 +1324,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,9 +1369,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$Q$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$S$25</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1353,16 +1419,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$27:$Q$27</c:f>
+              <c:f>Match_nonmatch_performance!$B$27:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.79</c:v>
                 </c:pt>
@@ -1410,6 +1482,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,9 +1527,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$Q$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$S$25</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1499,16 +1577,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$28:$Q$28</c:f>
+              <c:f>Match_nonmatch_performance!$B$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.65</c:v>
                 </c:pt>
@@ -1556,6 +1640,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,9 +1685,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$25:$Q$25</c:f>
+              <c:f>Match_nonmatch_performance!$B$25:$S$25</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -1645,16 +1735,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$29:$Q$29</c:f>
+              <c:f>Match_nonmatch_performance!$B$29:$S$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
                 </c:pt>
@@ -1702,6 +1798,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,9 +2148,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$Q$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$S$47</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2096,16 +2198,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$48:$Q$48</c:f>
+              <c:f>Match_nonmatch_performance!$B$48:$S$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.64</c:v>
                 </c:pt>
@@ -2153,6 +2261,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,9 +2306,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$Q$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$S$47</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2242,16 +2356,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$49:$Q$49</c:f>
+              <c:f>Match_nonmatch_performance!$B$49:$S$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.76</c:v>
                 </c:pt>
@@ -2299,6 +2419,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,9 +2464,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$Q$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$S$47</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2388,16 +2514,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$50:$Q$50</c:f>
+              <c:f>Match_nonmatch_performance!$B$50:$S$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.65</c:v>
                 </c:pt>
@@ -2445,6 +2577,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,9 +2622,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Match_nonmatch_performance!$B$47:$Q$47</c:f>
+              <c:f>Match_nonmatch_performance!$B$47:$S$47</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10.25</c:v>
                 </c:pt>
@@ -2534,16 +2672,22 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Match_nonmatch_performance!$B$51:$Q$51</c:f>
+              <c:f>Match_nonmatch_performance!$B$51:$S$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.74</c:v>
                 </c:pt>
@@ -2591,6 +2735,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5659,8 +5809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A721E779-FEE5-484E-8483-F9B1BCF641C5}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G47" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5718,6 +5868,12 @@
       <c r="Q1" s="1">
         <v>12.11</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5771,6 +5927,12 @@
       <c r="Q2">
         <v>0.76</v>
       </c>
+      <c r="R2">
+        <v>0.75</v>
+      </c>
+      <c r="S2">
+        <v>0.74</v>
+      </c>
       <c r="W2">
         <f>AVERAGE(M2:Q2)</f>
         <v>0.77400000000000002</v>
@@ -5828,6 +5990,12 @@
       <c r="Q3">
         <v>0.83</v>
       </c>
+      <c r="R3">
+        <v>0.9</v>
+      </c>
+      <c r="S3">
+        <v>0.87</v>
+      </c>
       <c r="W3">
         <f t="shared" ref="W3:W5" si="0">AVERAGE(M3:Q3)</f>
         <v>0.84800000000000009</v>
@@ -5885,6 +6053,12 @@
       <c r="Q4">
         <v>0.88</v>
       </c>
+      <c r="R4">
+        <v>0.95</v>
+      </c>
+      <c r="S4">
+        <v>0.97</v>
+      </c>
       <c r="W4">
         <f t="shared" si="0"/>
         <v>0.9</v>
@@ -5942,6 +6116,12 @@
       <c r="Q5">
         <v>0.72</v>
       </c>
+      <c r="R5">
+        <v>0.9</v>
+      </c>
+      <c r="S5">
+        <v>0.84</v>
+      </c>
       <c r="W5">
         <f t="shared" si="0"/>
         <v>0.72799999999999998</v>
@@ -5996,6 +6176,12 @@
       <c r="Q25" s="1">
         <v>12.11</v>
       </c>
+      <c r="R25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6049,6 +6235,12 @@
       <c r="Q26">
         <v>0.67</v>
       </c>
+      <c r="R26">
+        <v>0.74</v>
+      </c>
+      <c r="S26">
+        <v>0.72</v>
+      </c>
       <c r="W26">
         <f>AVERAGE(M26:Q26)</f>
         <v>0.7619999999999999</v>
@@ -6106,6 +6298,12 @@
       <c r="Q27">
         <v>0.83</v>
       </c>
+      <c r="R27">
+        <v>0.92</v>
+      </c>
+      <c r="S27">
+        <v>0.74</v>
+      </c>
       <c r="W27">
         <f t="shared" ref="W27:W29" si="1">AVERAGE(M27:Q27)</f>
         <v>0.89200000000000002</v>
@@ -6163,6 +6361,12 @@
       <c r="Q28">
         <v>0.8</v>
       </c>
+      <c r="R28">
+        <v>0.81</v>
+      </c>
+      <c r="S28">
+        <v>0.86</v>
+      </c>
       <c r="W28">
         <f t="shared" si="1"/>
         <v>0.75800000000000001</v>
@@ -6220,6 +6424,12 @@
       <c r="Q29">
         <v>0.87</v>
       </c>
+      <c r="R29">
+        <v>0.84</v>
+      </c>
+      <c r="S29">
+        <v>0.89</v>
+      </c>
       <c r="W29">
         <f t="shared" si="1"/>
         <v>0.83399999999999996</v>
@@ -6274,6 +6484,12 @@
       <c r="Q47" s="1">
         <v>12.11</v>
       </c>
+      <c r="R47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6327,6 +6543,12 @@
       <c r="Q48">
         <v>0.77</v>
       </c>
+      <c r="R48">
+        <v>0.93</v>
+      </c>
+      <c r="S48">
+        <v>0.82</v>
+      </c>
       <c r="W48">
         <f>AVERAGE(M48:Q48)</f>
         <v>0.80399999999999994</v>
@@ -6384,6 +6606,12 @@
       <c r="Q49">
         <v>0.85</v>
       </c>
+      <c r="R49">
+        <v>0.97</v>
+      </c>
+      <c r="S49">
+        <v>0.89</v>
+      </c>
       <c r="W49">
         <f t="shared" ref="W49:W51" si="2">AVERAGE(M49:Q49)</f>
         <v>0.80800000000000005</v>
@@ -6441,6 +6669,12 @@
       <c r="Q50">
         <v>0.81</v>
       </c>
+      <c r="R50">
+        <v>0.89</v>
+      </c>
+      <c r="S50">
+        <v>0.97</v>
+      </c>
       <c r="W50">
         <f t="shared" si="2"/>
         <v>0.78199999999999992</v>
@@ -6497,6 +6731,12 @@
       </c>
       <c r="Q51">
         <v>0.76</v>
+      </c>
+      <c r="R51">
+        <v>0.91</v>
+      </c>
+      <c r="S51">
+        <v>0.94</v>
       </c>
       <c r="W51">
         <f t="shared" si="2"/>
